--- a/data/case1/18/Plm2_3.xlsx
+++ b/data/case1/18/Plm2_3.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.5703125" customWidth="true"/>
+    <col min="2" max="2" width="16.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.41571935251523939</v>
+        <v>-0.4092363652084714</v>
       </c>
       <c r="B1" s="0">
-        <v>0.41470012030816861</v>
+        <v>0.40824050861215255</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.28295111266170458</v>
+        <v>-0.36213199997073531</v>
       </c>
       <c r="B2" s="0">
-        <v>0.28024899690701766</v>
+        <v>0.35793857109562843</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.17729746896298693</v>
+        <v>-0.17617439202482998</v>
       </c>
       <c r="B3" s="0">
-        <v>0.17653402053518974</v>
+        <v>0.17541289901189572</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.1645340205946404</v>
+        <v>-0.16341289919635749</v>
       </c>
       <c r="B4" s="0">
-        <v>0.16385164594069934</v>
+        <v>0.16273359013198885</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.15785164614680181</v>
+        <v>-0.15673359084339911</v>
       </c>
       <c r="B5" s="0">
-        <v>0.15649403424044728</v>
+        <v>0.15537969010009878</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.073595400745452455</v>
+        <v>-0.056605602655705134</v>
       </c>
       <c r="B6" s="0">
-        <v>0.073512590964903257</v>
+        <v>0.056565061472094946</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.053512591219217143</v>
+        <v>-0.036565062324166675</v>
       </c>
       <c r="B7" s="0">
-        <v>0.053347396115619006</v>
+        <v>0.036502554914790153</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.033347396371770976</v>
+        <v>-0.016502555770165017</v>
       </c>
       <c r="B8" s="0">
-        <v>0.033255123862496738</v>
+        <v>0.016472589971765927</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.027255124079448301</v>
+        <v>-0.010472590710244312</v>
       </c>
       <c r="B9" s="0">
-        <v>0.027191119652926865</v>
+        <v>0.010449616270251205</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.021191119871211583</v>
+        <v>-0.0044496170099250776</v>
       </c>
       <c r="B10" s="0">
-        <v>0.021185715444218545</v>
+        <v>0.0044504851615343455</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.016685715657956735</v>
+        <v>4.9514111616133505e-05</v>
       </c>
       <c r="B11" s="0">
-        <v>0.016678203076189391</v>
+        <v>-5.6493414266611808e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.010678203294557154</v>
+        <v>0.0060564926748378767</v>
       </c>
       <c r="B12" s="0">
-        <v>0.010664928465395906</v>
+        <v>-0.00611440178195366</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0046649286844511195</v>
+        <v>0.012114401044417633</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0046642512659182955</v>
+        <v>-0.01214565321123473</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0073357484974518883</v>
+        <v>0.004915768144987176</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0073396485369157105</v>
+        <v>-0.0049184919626963364</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.013339648318023478</v>
+        <v>-0.021051266390144541</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.013351780527543156</v>
+        <v>0.021026830776344596</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015027638354041084</v>
+        <v>-0.015026831514303396</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004587241806089</v>
+        <v>0.015004081802822533</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090045874611535126</v>
+        <v>-0.0090040825434849481</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999997716221358</v>
+        <v>0.0089999992333220646</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.1217490078515695</v>
+        <v>-0.036108509340017747</v>
       </c>
       <c r="B18" s="0">
-        <v>0.1215940373909028</v>
+        <v>0.036096514913928957</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027097306117259023</v>
+        <v>-0.027096515604499327</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027014034132346598</v>
+        <v>0.027013307587386848</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018014034337262785</v>
+        <v>-0.018013308284090535</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004313740139111</v>
+        <v>0.018004258930901074</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090043139453701571</v>
+        <v>-0.0090042596285213605</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999997945211518</v>
+        <v>0.0089999993018241575</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093951528152981467</v>
+        <v>-0.093953794488029985</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093636914150820871</v>
+        <v>0.09363905424696739</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084636914361788662</v>
+        <v>-0.084639054971868966</v>
       </c>
       <c r="B23" s="0">
-        <v>0.08412739675630565</v>
+        <v>0.084127617268681121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042127397066987093</v>
+        <v>-0.042127618285450197</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999687546641</v>
+        <v>0.041999998977789943</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.076898633707784825</v>
+        <v>-0.092774088175993086</v>
       </c>
       <c r="B25" s="0">
-        <v>0.076817698380171606</v>
+        <v>0.092659671700246804</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.070817698593600653</v>
+        <v>-0.086659672433626156</v>
       </c>
       <c r="B26" s="0">
-        <v>0.070718051989089759</v>
+        <v>0.086517501043719136</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.080249972070505216</v>
+        <v>-0.080517501779869161</v>
       </c>
       <c r="B27" s="0">
-        <v>0.079702490231174483</v>
+        <v>0.080048209944013848</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.073702490449966795</v>
+        <v>-0.074048210694199312</v>
       </c>
       <c r="B28" s="0">
-        <v>0.073344593585091822</v>
+        <v>0.073744872514661886</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.061344593824479432</v>
+        <v>-0.061744873325194405</v>
       </c>
       <c r="B29" s="0">
-        <v>0.061190113905102095</v>
+        <v>0.061614127861956192</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.041190114169458614</v>
+        <v>-0.042168442810244233</v>
       </c>
       <c r="B30" s="0">
-        <v>0.041000356533381854</v>
+        <v>0.042019174473970633</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.026000356785235823</v>
+        <v>-0.027019175321632005</v>
       </c>
       <c r="B31" s="0">
-        <v>0.025950778335424474</v>
+        <v>0.027000635537737239</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0049507786051847802</v>
+        <v>-0.0060006364373208498</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0048896621382823469</v>
+        <v>0.0059999992277575132</v>
       </c>
     </row>
   </sheetData>
